--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Dabrowski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Dabrowski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:25:24.60</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.51764583333</v>
       </c>
       <c r="B2" t="n">
         <v>5118.2</v>
@@ -480,12 +487,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:42:42.30</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.52965625</v>
       </c>
       <c r="B3" t="n">
         <v>6155.9</v>
@@ -501,12 +511,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:43:04.00</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.52990740741</v>
       </c>
       <c r="B4" t="n">
         <v>6177.6</v>
@@ -522,12 +535,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:25:24.50</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.51764467593</v>
       </c>
       <c r="B5" t="n">
         <v>5118.1</v>
@@ -543,12 +559,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:42:42.20</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.52965509259</v>
       </c>
       <c r="B6" t="n">
         <v>6155.8</v>
@@ -564,12 +583,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:43:03.80</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.52990509259</v>
       </c>
       <c r="B7" t="n">
         <v>6177.4</v>
@@ -585,382 +607,873 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:25.26</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684.59316157408</v>
       </c>
       <c r="B8" t="n">
+        <v>649.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.967146004949297</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59340578704</v>
+      </c>
+      <c r="B9" t="n">
+        <v>670.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.988160729408263</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59368240741</v>
+      </c>
+      <c r="B10" t="n">
+        <v>694.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.056255766323634</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59138148148</v>
+      </c>
+      <c r="B11" t="n">
+        <v>495.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.939501081194197</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59367893518</v>
+      </c>
+      <c r="B12" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.277262892041886</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59392430555</v>
+      </c>
+      <c r="B13" t="n">
+        <v>715</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.21865485395704</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59473680556</v>
+      </c>
+      <c r="B14" t="n">
         <v>785.2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>12.28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>3.682137421199255</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:49.06</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.59501226852</v>
+      </c>
+      <c r="B15" t="n">
         <v>809</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>11.98</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>3.652564287185669</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:56.66</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.59510023148</v>
+      </c>
+      <c r="B16" t="n">
         <v>816.6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>12.08</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>3.816800253731864</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:06.96</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.594525</v>
+      </c>
+      <c r="B17" t="n">
         <v>766.9</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>3.410823447363717</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:25.06</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.59473449074</v>
+      </c>
+      <c r="B18" t="n">
         <v>785</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>9.57</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>3.468593393053328</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:16:56.46</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.59509791667</v>
+      </c>
+      <c r="B19" t="n">
         <v>816.4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>3.569871187210084</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:25:56.86</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>671.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.816692352294922</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:37.56</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64700069444</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.401492255074637</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.65112916667</v>
+      </c>
+      <c r="B21" t="n">
         <v>1372.5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>13.85</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>3.645100150789532</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:42:52.96</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.65477962963</v>
+      </c>
+      <c r="B22" t="n">
         <v>1687.9</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>12.84</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>3.595331192016603</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:25:56.66</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>671.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.51822761126927</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:41.26</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>776.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.21812105178833</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:31:40.56</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.64699722223</v>
+      </c>
+      <c r="B23" t="n">
         <v>1015.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>9.94</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>3.164574929646085</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:31:14.79</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5122.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.374524968011039</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:32:41.89</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5209.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.732227734157017</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:46:59.69</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6067.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.827991689954485</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:14:08.09</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4095.8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.086265019008093</v>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:36:40.79</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45685.64967314815</v>
       </c>
       <c r="B24" t="n">
-        <v>5448.5</v>
+        <v>1246.7</v>
       </c>
       <c r="C24" t="n">
-        <v>9.460000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="D24" t="n">
-        <v>2.940496734210422</v>
+        <v>3.149442638669694</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:46:59.39</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45685.65112569444</v>
       </c>
       <c r="B25" t="n">
-        <v>6067.1</v>
+        <v>1372.2</v>
       </c>
       <c r="C25" t="n">
-        <v>9.56</v>
+        <v>9.52</v>
       </c>
       <c r="D25" t="n">
-        <v>3.310066904340473</v>
+        <v>3.08819692475455</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.67058518519</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3053.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.875223670686994</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.67079583334</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3071.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.901540960584366</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.67585023148</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3508.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.468041368893214</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.67079467593</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3071.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.850619895117621</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.67584907408</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3508.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.514835017068044</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.67589421296</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3512.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.375224385942732</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47739340278</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1294.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9392164945602425</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47775335648</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1325.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8800620010920935</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47835868056</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1377.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.952321222850257</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47475682871</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1066.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.612820591245379</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.47833206019</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1375.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.756553990500314</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.47835752315</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1377.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.019265532493593</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.48793854166</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2205.6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.935751097542898</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.4937869213</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2710.9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.117605243410381</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.49390960648</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2721.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.317203487668718</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.48218506944</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1708.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.816275221960884</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45686.49378344908</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2710.6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.775653447423661</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45686.49546747685</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2856.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.644420794078283</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
